--- a/TemplateGOTests/data/table-large.xlsx
+++ b/TemplateGOTests/data/table-large.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EF4473-8CB8-4DEC-84C1-37F3522605FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8400CE0E-1538-4E1D-B80C-C4E6C9160D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="420" windowWidth="15270" windowHeight="13995" xr2:uid="{1FF4AB30-C56D-4952-8D75-2B4C64915CB0}"/>
+    <workbookView xWindow="12135" yWindow="765" windowWidth="15270" windowHeight="13995" xr2:uid="{1FF4AB30-C56D-4952-8D75-2B4C64915CB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="表格测试" sheetId="1" r:id="rId1"/>
+    <sheet name="使用表格表格" sheetId="1" r:id="rId1"/>
+    <sheet name="不使用表格" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -100,8 +101,73 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Libing Yang</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{FFB3E3B9-DF56-4138-984F-8B43BE96D7E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Libing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+将数据中 formual 属性的值当作公式使用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{814BC194-778A-4F72-A9B5-99310690F97F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Libing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+将 =: 后面的字符当作公式插入。
+#row   - 替换为行号
+#index - 替换为数组索引
+#seq   - 替换为数组序列</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>#index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +272,18 @@
   </si>
   <si>
     <t>${title}${data|table}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${title}${data|table:sampleCount=5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=:SUM(表1[[#This Row],[语文]:[英语]])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=:ROUND(AVERAGE(E#row:G#row),0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,9 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -448,6 +523,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,9 +539,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom/>
         <vertical style="thin">
@@ -469,6 +548,498 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -512,496 +1083,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1016,23 +1097,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B442C8DA-7694-49E7-AF7D-85F44F169235}" name="表1" displayName="表1" ref="A3:J9" totalsRowCount="1" headerRowDxfId="1" dataDxfId="25" totalsRowDxfId="0" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B442C8DA-7694-49E7-AF7D-85F44F169235}" name="表1" displayName="表1" ref="A3:J9" totalsRowCount="1" headerRowDxfId="25" dataDxfId="23" totalsRowDxfId="21" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="20">
   <autoFilter ref="A3:J8" xr:uid="{B442C8DA-7694-49E7-AF7D-85F44F169235}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9E6086D4-EF08-43EE-BF01-64EB25833D42}" name="索引" totalsRowLabel="汇总" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{04DC8F26-3481-4730-B199-15E72FECA9A2}" name="编号" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{A046EC53-05A4-4958-B0BC-DE5E6AC3860A}" name="Id" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{541F1BD9-CADD-4617-95CC-1C3F0C7E1E81}" name="姓名" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2E12F431-6842-43CD-A274-75785FF3B7C4}" name="语文" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{9E6D9087-B7C7-43B9-83FB-868FBE9EEC16}" name="数学" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{15E14A88-20BD-424B-817E-A0CA896D498A}" name="英语" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{979B07F2-C388-46C4-9797-9940B2B2F267}" name="总分" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{9E6086D4-EF08-43EE-BF01-64EB25833D42}" name="索引" totalsRowLabel="汇总" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{04DC8F26-3481-4730-B199-15E72FECA9A2}" name="编号" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{A046EC53-05A4-4958-B0BC-DE5E6AC3860A}" name="Id" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{541F1BD9-CADD-4617-95CC-1C3F0C7E1E81}" name="姓名" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{2E12F431-6842-43CD-A274-75785FF3B7C4}" name="语文" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{9E6D9087-B7C7-43B9-83FB-868FBE9EEC16}" name="数学" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{15E14A88-20BD-424B-817E-A0CA896D498A}" name="英语" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{979B07F2-C388-46C4-9797-9940B2B2F267}" name="总分" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>SUM(表1[[#This Row],[语文]:[英语]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5B46BDAF-CBCE-473F-B7CB-27C7F36099A5}" name="平均分" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="9" xr3:uid="{5B46BDAF-CBCE-473F-B7CB-27C7F36099A5}" name="平均分" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AF9B39C-1EC7-4E9C-9807-0ADDA660ED6D}" name="说明" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{9AF9B39C-1EC7-4E9C-9807-0ADDA660ED6D}" name="说明" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1348,20 +1429,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1465,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1394,39 +1475,39 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>0</v>
       </c>
       <c r="B4" s="3">
@@ -1453,10 +1534,10 @@
         <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
         <v>80</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="3">
@@ -1483,12 +1564,12 @@
         <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
         <v>83</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
       <c r="B6" s="3">
@@ -1515,10 +1596,10 @@
         <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
         <v>82</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
       <c r="B7" s="3">
@@ -1545,12 +1626,12 @@
         <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
         <v>78</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8" s="3">
@@ -1577,39 +1658,39 @@
         <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
         <v>86</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
         <f>SUBTOTAL(103,表1[姓名])</f>
         <v>5</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f>SUBTOTAL(101,表1[语文])</f>
         <v>79.8</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>SUBTOTAL(101,表1[数学])</f>
         <v>82.8</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f>SUBTOTAL(101,表1[英语])</f>
         <v>82.6</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <f>SUBTOTAL(101,表1[总分])</f>
         <v>245.2</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <f>SUBTOTAL(101,表1[平均分])</f>
         <v>81.8</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1622,4 +1703,260 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD7C2B9-AAED-4175-BB84-D97D63C45151}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9" customWidth="1"/>
+    <col min="10" max="10" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>76</v>
+      </c>
+      <c r="F4" s="3">
+        <v>88</v>
+      </c>
+      <c r="G4" s="3">
+        <v>75</v>
+      </c>
+      <c r="H4" s="3">
+        <f>SUM(不使用表格!$E4:$G4)</f>
+        <v>239</v>
+      </c>
+      <c r="I4" s="3">
+        <f>ROUND(AVERAGE(不使用表格!$E4:$G4),0)</f>
+        <v>80</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>88</v>
+      </c>
+      <c r="F5" s="3">
+        <v>84</v>
+      </c>
+      <c r="G5" s="3">
+        <v>76</v>
+      </c>
+      <c r="H5" s="3">
+        <f>SUM(不使用表格!$E5:$G5)</f>
+        <v>248</v>
+      </c>
+      <c r="I5" s="3">
+        <f>ROUND(AVERAGE(不使用表格!$E5:$G5),0)</f>
+        <v>83</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>82</v>
+      </c>
+      <c r="F6" s="3">
+        <v>75</v>
+      </c>
+      <c r="G6" s="3">
+        <v>90</v>
+      </c>
+      <c r="H6" s="3">
+        <f>SUM(不使用表格!$E6:$G6)</f>
+        <v>247</v>
+      </c>
+      <c r="I6" s="3">
+        <f>ROUND(AVERAGE(不使用表格!$E6:$G6),0)</f>
+        <v>82</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>74</v>
+      </c>
+      <c r="F7" s="3">
+        <v>77</v>
+      </c>
+      <c r="G7" s="3">
+        <v>84</v>
+      </c>
+      <c r="H7" s="3">
+        <f>SUM(不使用表格!$E7:$G7)</f>
+        <v>235</v>
+      </c>
+      <c r="I7" s="3">
+        <f>ROUND(AVERAGE(不使用表格!$E7:$G7),0)</f>
+        <v>78</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>79</v>
+      </c>
+      <c r="F8" s="3">
+        <v>90</v>
+      </c>
+      <c r="G8" s="3">
+        <v>88</v>
+      </c>
+      <c r="H8" s="3">
+        <f>SUM(不使用表格!$E8:$G8)</f>
+        <v>257</v>
+      </c>
+      <c r="I8" s="3">
+        <f>ROUND(AVERAGE(不使用表格!$E8:$G8),0)</f>
+        <v>86</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/TemplateGOTests/data/table-large.xlsx
+++ b/TemplateGOTests/data/table-large.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8400CE0E-1538-4E1D-B80C-C4E6C9160D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA28C37-AA57-41A1-A95E-B14CA71A2244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="765" windowWidth="15270" windowHeight="13995" xr2:uid="{1FF4AB30-C56D-4952-8D75-2B4C64915CB0}"/>
+    <workbookView xWindow="3450" yWindow="660" windowWidth="15270" windowHeight="13995" xr2:uid="{1FF4AB30-C56D-4952-8D75-2B4C64915CB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="使用表格表格" sheetId="1" r:id="rId1"/>
+    <sheet name="使用表格" sheetId="1" r:id="rId1"/>
     <sheet name="不使用表格" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
